--- a/Chapter12/Chapter 12 - Profit & Loss by Class.xlsx
+++ b/Chapter12/Chapter 12 - Profit & Loss by Class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC01BDAE-1FA8-4881-BD3E-B4EC3F8590F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD42BDB7-2621-4EB4-8AB9-65645D773636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="2775" yWindow="45" windowWidth="13380" windowHeight="7125" xr2:uid="{1366F664-B206-4225-86E2-02D031560E8F}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="16440" xr2:uid="{1366F664-B206-4225-86E2-02D031560E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1783,7 +1783,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27120,7 +27120,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="FILTER">
+        <control shapeId="1026" r:id="rId4" name="HEADER">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -27140,12 +27140,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="FILTER"/>
+        <control shapeId="1026" r:id="rId4" name="HEADER"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="HEADER">
+        <control shapeId="1025" r:id="rId6" name="FILTER">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -27165,7 +27165,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="HEADER"/>
+        <control shapeId="1025" r:id="rId6" name="FILTER"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
